--- a/Stocks_prices.xlsx
+++ b/Stocks_prices.xlsx
@@ -28,7 +28,7 @@
     <t>CINE1</t>
   </si>
   <si>
-    <t>AZUL AZUL</t>
+    <t>AZUL</t>
   </si>
   <si>
     <t>NA</t>
